--- a/01 DOCUEMENTOS/REQUISITOS DE EMPLEO.xlsx
+++ b/01 DOCUEMENTOS/REQUISITOS DE EMPLEO.xlsx
@@ -56,10 +56,10 @@
     <t xml:space="preserve">Tres fotografias tamaño infantil a color  ( Recientes ) </t>
   </si>
   <si>
-    <t xml:space="preserve">Copia de Inscripcion al  RFC  ( Regstro federal de contribuyentes ) </t>
+    <t xml:space="preserve">Copia de avisos de Retencion  ( INFONAVIT-- FONACOT Etc,  )                   En caso de contar con alguno. </t>
   </si>
   <si>
-    <t xml:space="preserve">Copia de avisos de Retencion  ( INFONAVIT-- FONACOT Etc,  )                   En caso de contar con alguno. </t>
+    <t xml:space="preserve">Copia de Inscripcion al  RFC  ( Constancia de situacion fiscal ) </t>
   </si>
 </sst>
 </file>
@@ -244,91 +244,91 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -891,8 +891,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17:J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -907,517 +907,512 @@
   <sheetData>
     <row r="1" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="16"/>
-      <c r="B2" s="17"/>
-      <c r="C2" s="18" t="s">
+      <c r="A2" s="9"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="19"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="16"/>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18" t="s">
+      <c r="D2" s="20"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="10"/>
+      <c r="H2" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="18"/>
-      <c r="J2" s="19"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="20"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="20"/>
+      <c r="A3" s="11"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
-      <c r="D3" s="29"/>
+      <c r="D3" s="15"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="20"/>
+      <c r="F3" s="11"/>
       <c r="G3" s="3"/>
       <c r="H3" s="3"/>
       <c r="I3" s="3"/>
-      <c r="J3" s="21"/>
+      <c r="J3" s="12"/>
     </row>
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="20"/>
+      <c r="A4" s="11"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="20"/>
+      <c r="D4" s="18"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="11"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="6"/>
-      <c r="J4" s="22"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
+      <c r="A5" s="11"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="7" t="s">
+      <c r="C5" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="20"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="11"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="6"/>
-      <c r="J5" s="22"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="20"/>
+      <c r="A6" s="11"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
-      <c r="D6" s="29"/>
+      <c r="D6" s="15"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="20"/>
+      <c r="F6" s="11"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
       <c r="I6" s="3"/>
-      <c r="J6" s="21"/>
+      <c r="J6" s="12"/>
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="20"/>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="11"/>
+      <c r="B7" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="8"/>
-      <c r="D7" s="31"/>
-      <c r="E7" s="14"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="12" t="s">
+      <c r="C7" s="23"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="7"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="23"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="30"/>
+      <c r="J7" s="31"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="20"/>
-      <c r="B8" s="8"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="31"/>
-      <c r="E8" s="14"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="12"/>
-      <c r="H8" s="12"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="23"/>
+      <c r="A8" s="11"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="7"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="31"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="20"/>
+      <c r="A9" s="11"/>
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="32"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="3"/>
-      <c r="F9" s="20"/>
+      <c r="F9" s="11"/>
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
-      <c r="J9" s="21"/>
+      <c r="J9" s="12"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="20"/>
+      <c r="A10" s="11"/>
       <c r="B10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="4"/>
-      <c r="D10" s="32"/>
+      <c r="D10" s="16"/>
       <c r="E10" s="3"/>
-      <c r="F10" s="20"/>
+      <c r="F10" s="11"/>
       <c r="G10" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="24"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="20"/>
+      <c r="A11" s="11"/>
       <c r="B11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C11" s="4"/>
-      <c r="D11" s="32"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="3"/>
-      <c r="F11" s="20"/>
+      <c r="F11" s="11"/>
       <c r="G11" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="24"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="20"/>
+      <c r="A12" s="11"/>
       <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="4"/>
-      <c r="D12" s="32"/>
+      <c r="D12" s="16"/>
       <c r="E12" s="3"/>
-      <c r="F12" s="20"/>
+      <c r="F12" s="11"/>
       <c r="G12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="24"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="20"/>
+      <c r="A13" s="11"/>
       <c r="B13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="4"/>
-      <c r="D13" s="32"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="3"/>
-      <c r="F13" s="20"/>
+      <c r="F13" s="11"/>
       <c r="G13" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="24"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="20"/>
+      <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="4"/>
-      <c r="D14" s="32"/>
+      <c r="D14" s="16"/>
       <c r="E14" s="3"/>
-      <c r="F14" s="20"/>
+      <c r="F14" s="11"/>
       <c r="G14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="24"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="20"/>
+      <c r="A15" s="11"/>
       <c r="B15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="4"/>
-      <c r="D15" s="32"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="3"/>
-      <c r="F15" s="20"/>
+      <c r="F15" s="11"/>
       <c r="G15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
-      <c r="J15" s="24"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="20"/>
+      <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C16" s="4"/>
-      <c r="D16" s="32"/>
+      <c r="D16" s="16"/>
       <c r="E16" s="3"/>
-      <c r="F16" s="20"/>
+      <c r="F16" s="11"/>
       <c r="G16" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
-      <c r="J16" s="24"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="20"/>
-      <c r="B17" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C17" s="9"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="25"/>
+      <c r="A17" s="11"/>
+      <c r="B17" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+      <c r="E17" s="8"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H17" s="32"/>
+      <c r="I17" s="32"/>
+      <c r="J17" s="33"/>
     </row>
     <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="28"/>
+      <c r="A18" s="14"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="29"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="35"/>
     </row>
     <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="16"/>
-      <c r="B20" s="17"/>
-      <c r="C20" s="18" t="s">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10"/>
+      <c r="C20" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="19"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="16"/>
-      <c r="G20" s="17"/>
-      <c r="H20" s="37" t="s">
+      <c r="D20" s="20"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="9"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="38"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="37"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="20"/>
+      <c r="A21" s="11"/>
       <c r="B21" s="3"/>
       <c r="C21" s="3"/>
-      <c r="D21" s="29"/>
+      <c r="D21" s="15"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="20"/>
+      <c r="F21" s="11"/>
       <c r="G21" s="3"/>
       <c r="H21" s="3"/>
       <c r="I21" s="3"/>
-      <c r="J21" s="21"/>
+      <c r="J21" s="12"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="20"/>
+      <c r="A22" s="11"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="11"/>
-      <c r="F22" s="20"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="6"/>
+      <c r="F22" s="11"/>
       <c r="G22" s="3"/>
-      <c r="H22" s="6" t="s">
+      <c r="H22" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="I22" s="6"/>
-      <c r="J22" s="22"/>
+      <c r="I22" s="17"/>
+      <c r="J22" s="18"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" s="20"/>
+      <c r="A23" s="11"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="7" t="s">
+      <c r="C23" s="21" t="s">
         <v>2</v>
       </c>
-      <c r="D23" s="22"/>
-      <c r="E23" s="11"/>
-      <c r="F23" s="20"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="6"/>
+      <c r="F23" s="11"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="6" t="s">
+      <c r="H23" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="I23" s="6"/>
-      <c r="J23" s="22"/>
+      <c r="I23" s="17"/>
+      <c r="J23" s="18"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" s="20"/>
+      <c r="A24" s="11"/>
       <c r="B24" s="3"/>
       <c r="C24" s="3"/>
-      <c r="D24" s="29"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="3"/>
-      <c r="F24" s="20"/>
+      <c r="F24" s="11"/>
       <c r="G24" s="3"/>
       <c r="H24" s="3"/>
       <c r="I24" s="3"/>
-      <c r="J24" s="21"/>
+      <c r="J24" s="12"/>
     </row>
     <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="20"/>
-      <c r="B25" s="13" t="s">
+      <c r="A25" s="11"/>
+      <c r="B25" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C25" s="8"/>
-      <c r="D25" s="36"/>
-      <c r="E25" s="14"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="12" t="s">
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="7"/>
+      <c r="F25" s="11"/>
+      <c r="G25" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="23"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="31"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" s="20"/>
-      <c r="B26" s="8"/>
-      <c r="C26" s="8"/>
-      <c r="D26" s="31"/>
-      <c r="E26" s="14"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="12"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="12"/>
-      <c r="J26" s="23"/>
+      <c r="A26" s="11"/>
+      <c r="B26" s="23"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="7"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="31"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" s="20"/>
+      <c r="A27" s="11"/>
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
-      <c r="D27" s="32"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="3"/>
-      <c r="F27" s="20"/>
+      <c r="F27" s="11"/>
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
-      <c r="J27" s="21"/>
+      <c r="J27" s="12"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" s="20"/>
+      <c r="A28" s="11"/>
       <c r="B28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="4"/>
-      <c r="D28" s="32"/>
+      <c r="D28" s="16"/>
       <c r="E28" s="3"/>
-      <c r="F28" s="20"/>
+      <c r="F28" s="11"/>
       <c r="G28" s="4" t="s">
         <v>4</v>
       </c>
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
-      <c r="J28" s="24"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" s="20"/>
+      <c r="A29" s="11"/>
       <c r="B29" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C29" s="4"/>
-      <c r="D29" s="32"/>
+      <c r="D29" s="16"/>
       <c r="E29" s="3"/>
-      <c r="F29" s="20"/>
+      <c r="F29" s="11"/>
       <c r="G29" s="4" t="s">
         <v>5</v>
       </c>
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
-      <c r="J29" s="24"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" s="20"/>
+      <c r="A30" s="11"/>
       <c r="B30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="4"/>
-      <c r="D30" s="32"/>
+      <c r="D30" s="16"/>
       <c r="E30" s="3"/>
-      <c r="F30" s="20"/>
+      <c r="F30" s="11"/>
       <c r="G30" s="4" t="s">
         <v>6</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
-      <c r="J30" s="24"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" s="20"/>
+      <c r="A31" s="11"/>
       <c r="B31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C31" s="4"/>
-      <c r="D31" s="32"/>
+      <c r="D31" s="16"/>
       <c r="E31" s="3"/>
-      <c r="F31" s="20"/>
+      <c r="F31" s="11"/>
       <c r="G31" s="4" t="s">
         <v>7</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
-      <c r="J31" s="24"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" s="20"/>
+      <c r="A32" s="11"/>
       <c r="B32" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="4"/>
-      <c r="D32" s="32"/>
+      <c r="D32" s="16"/>
       <c r="E32" s="3"/>
-      <c r="F32" s="20"/>
+      <c r="F32" s="11"/>
       <c r="G32" s="4" t="s">
         <v>8</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
-      <c r="J32" s="24"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" s="20"/>
+      <c r="A33" s="11"/>
       <c r="B33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C33" s="4"/>
-      <c r="D33" s="32"/>
+      <c r="D33" s="16"/>
       <c r="E33" s="3"/>
-      <c r="F33" s="20"/>
+      <c r="F33" s="11"/>
       <c r="G33" s="4" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
-      <c r="J33" s="24"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" s="20"/>
+      <c r="A34" s="11"/>
       <c r="B34" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C34" s="4"/>
-      <c r="D34" s="32"/>
+      <c r="D34" s="16"/>
       <c r="E34" s="3"/>
-      <c r="F34" s="20"/>
+      <c r="F34" s="11"/>
       <c r="G34" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
-      <c r="J34" s="24"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="20"/>
-      <c r="B35" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C35" s="9"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" s="5"/>
-      <c r="I35" s="5"/>
-      <c r="J35" s="25"/>
+      <c r="A35" s="11"/>
+      <c r="B35" s="26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C35" s="26"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="8"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="H35" s="32"/>
+      <c r="I35" s="32"/>
+      <c r="J35" s="33"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="26"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="35"/>
-      <c r="E36" s="15"/>
-      <c r="F36" s="26"/>
-      <c r="G36" s="27"/>
-      <c r="H36" s="27"/>
-      <c r="I36" s="27"/>
-      <c r="J36" s="28"/>
+      <c r="A36" s="14"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="28"/>
+      <c r="D36" s="29"/>
+      <c r="E36" s="8"/>
+      <c r="F36" s="14"/>
+      <c r="G36" s="34"/>
+      <c r="H36" s="34"/>
+      <c r="I36" s="34"/>
+      <c r="J36" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="H5:J5"/>
-    <mergeCell ref="H2:J2"/>
-    <mergeCell ref="C23:D23"/>
     <mergeCell ref="B25:D26"/>
     <mergeCell ref="B35:D36"/>
     <mergeCell ref="G25:J26"/>
@@ -1428,10 +1423,15 @@
     <mergeCell ref="C22:D22"/>
     <mergeCell ref="H20:J20"/>
     <mergeCell ref="H22:J22"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="B17:D18"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H4:J4"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="H2:J2"/>
+    <mergeCell ref="C23:D23"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C5:D5"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="B17:D18"/>
     <mergeCell ref="C4:D4"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.16" top="0.37" bottom="0.28000000000000003" header="0.3" footer="0.3"/>

--- a/01 DOCUEMENTOS/REQUISITOS DE EMPLEO.xlsx
+++ b/01 DOCUEMENTOS/REQUISITOS DE EMPLEO.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="14">
   <si>
     <t>COMERCIO INTERNACIONAL DE CARNES</t>
   </si>
@@ -60,6 +60,12 @@
   </si>
   <si>
     <t xml:space="preserve">Copia de Inscripcion al  RFC  ( Constancia de situacion fiscal ) </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antecedentes No Penales </t>
+  </si>
+  <si>
+    <t>LICENCIA MERCANTIL    ( choferes )</t>
   </si>
 </sst>
 </file>
@@ -238,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
@@ -264,6 +270,54 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -271,65 +325,18 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -495,7 +502,7 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>12573</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="628650" cy="602816"/>
@@ -528,7 +535,7 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>1628775</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:row>22</xdr:row>
       <xdr:rowOff>15135</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="600075" cy="575415"/>
@@ -561,7 +568,7 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>41148</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="628650" cy="602816"/>
@@ -594,7 +601,7 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>720226</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>47624</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="689473" cy="661139"/>
@@ -889,10 +896,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J36"/>
+  <dimension ref="A1:J38"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:J18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -909,18 +916,18 @@
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="9"/>
       <c r="B2" s="10"/>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="20"/>
+      <c r="D2" s="32"/>
       <c r="E2" s="5"/>
       <c r="F2" s="9"/>
       <c r="G2" s="10"/>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="20"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="11"/>
@@ -937,34 +944,34 @@
     <row r="4" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="11"/>
       <c r="B4" s="3"/>
-      <c r="C4" s="17" t="s">
+      <c r="C4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="18"/>
+      <c r="D4" s="34"/>
       <c r="E4" s="6"/>
       <c r="F4" s="11"/>
       <c r="G4" s="3"/>
-      <c r="H4" s="17" t="s">
+      <c r="H4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="I4" s="17"/>
-      <c r="J4" s="18"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" spans="1:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="11"/>
       <c r="B5" s="3"/>
-      <c r="C5" s="21" t="s">
+      <c r="C5" s="37" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="38"/>
       <c r="E5" s="6"/>
       <c r="F5" s="11"/>
       <c r="G5" s="3"/>
-      <c r="H5" s="17" t="s">
+      <c r="H5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="I5" s="17"/>
-      <c r="J5" s="18"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="34"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="11"/>
@@ -980,31 +987,31 @@
     </row>
     <row r="7" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="11"/>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="23"/>
-      <c r="D7" s="25"/>
+      <c r="C7" s="18"/>
+      <c r="D7" s="20"/>
       <c r="E7" s="7"/>
       <c r="F7" s="11"/>
-      <c r="G7" s="30" t="s">
+      <c r="G7" s="25" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
-      <c r="J7" s="31"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="11"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="25"/>
+      <c r="B8" s="18"/>
+      <c r="C8" s="18"/>
+      <c r="D8" s="20"/>
       <c r="E8" s="7"/>
       <c r="F8" s="11"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="31"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="11"/>
@@ -1085,14 +1092,14 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="C14" s="4"/>
       <c r="D14" s="16"/>
       <c r="E14" s="3"/>
       <c r="F14" s="11"/>
       <c r="G14" s="4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
@@ -1100,15 +1107,15 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
-      <c r="B15" s="4" t="s">
-        <v>9</v>
+      <c r="B15" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="C15" s="4"/>
       <c r="D15" s="16"/>
       <c r="E15" s="3"/>
       <c r="F15" s="11"/>
-      <c r="G15" s="4" t="s">
-        <v>9</v>
+      <c r="G15" s="39" t="s">
+        <v>13</v>
       </c>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
@@ -1117,14 +1124,14 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="16"/>
       <c r="E16" s="3"/>
       <c r="F16" s="11"/>
       <c r="G16" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
@@ -1132,188 +1139,188 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
-      <c r="B17" s="26" t="s">
+      <c r="B17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="4"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4"/>
+      <c r="J17" s="13"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="11"/>
+      <c r="B18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C18" s="4"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="13"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="11"/>
+      <c r="B19" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="32" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H17" s="32"/>
-      <c r="I17" s="32"/>
-      <c r="J17" s="33"/>
-    </row>
-    <row r="18" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="14"/>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="29"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="34"/>
-      <c r="H18" s="34"/>
-      <c r="I18" s="34"/>
-      <c r="J18" s="35"/>
-    </row>
-    <row r="19" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" s="9"/>
-      <c r="B20" s="10"/>
-      <c r="C20" s="19" t="s">
+      <c r="H19" s="27"/>
+      <c r="I19" s="27"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="14"/>
+      <c r="B20" s="23"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="14"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="29"/>
+      <c r="I20" s="29"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" s="9"/>
+      <c r="B22" s="10"/>
+      <c r="C22" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="10"/>
-      <c r="H20" s="36" t="s">
+      <c r="D22" s="32"/>
+      <c r="E22" s="5"/>
+      <c r="F22" s="9"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="I20" s="36"/>
-      <c r="J20" s="37"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" s="11"/>
-      <c r="B21" s="3"/>
-      <c r="C21" s="3"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="1"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="12"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" s="11"/>
-      <c r="B22" s="3"/>
-      <c r="C22" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="D22" s="18"/>
-      <c r="E22" s="6"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="17" t="s">
-        <v>1</v>
-      </c>
-      <c r="I22" s="17"/>
-      <c r="J22" s="18"/>
+      <c r="I22" s="35"/>
+      <c r="J22" s="36"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" s="11"/>
       <c r="B23" s="3"/>
-      <c r="C23" s="21" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" s="18"/>
-      <c r="E23" s="6"/>
+      <c r="C23" s="3"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="11"/>
       <c r="G23" s="3"/>
-      <c r="H23" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="I23" s="17"/>
-      <c r="J23" s="18"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="12"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" s="11"/>
       <c r="B24" s="3"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="15"/>
-      <c r="E24" s="3"/>
+      <c r="C24" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="D24" s="34"/>
+      <c r="E24" s="6"/>
       <c r="F24" s="11"/>
       <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="12"/>
-    </row>
-    <row r="25" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H24" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="I24" s="33"/>
+      <c r="J24" s="34"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" s="11"/>
-      <c r="B25" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="7"/>
+      <c r="B25" s="3"/>
+      <c r="C25" s="37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D25" s="34"/>
+      <c r="E25" s="6"/>
       <c r="F25" s="11"/>
-      <c r="G25" s="30" t="s">
-        <v>3</v>
-      </c>
-      <c r="H25" s="30"/>
-      <c r="I25" s="30"/>
-      <c r="J25" s="31"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="33" t="s">
+        <v>2</v>
+      </c>
+      <c r="I25" s="33"/>
+      <c r="J25" s="34"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" s="11"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="7"/>
+      <c r="B26" s="3"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="15"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="11"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="31"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="12"/>
+    </row>
+    <row r="27" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="11"/>
-      <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="16"/>
-      <c r="E27" s="3"/>
+      <c r="B27" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="C27" s="18"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="7"/>
       <c r="F27" s="11"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="J27" s="12"/>
+      <c r="G27" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="H27" s="25"/>
+      <c r="I27" s="25"/>
+      <c r="J27" s="26"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" s="11"/>
-      <c r="B28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="4"/>
-      <c r="D28" s="16"/>
-      <c r="E28" s="3"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="7"/>
       <c r="F28" s="11"/>
-      <c r="G28" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="H28" s="4"/>
-      <c r="I28" s="4"/>
-      <c r="J28" s="13"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="26"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" s="11"/>
-      <c r="B29" s="4" t="s">
-        <v>5</v>
-      </c>
+      <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="16"/>
       <c r="E29" s="3"/>
       <c r="F29" s="11"/>
-      <c r="G29" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="13"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="12"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" s="11"/>
       <c r="B30" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C30" s="4"/>
       <c r="D30" s="16"/>
       <c r="E30" s="3"/>
       <c r="F30" s="11"/>
       <c r="G30" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
@@ -1322,14 +1329,14 @@
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" s="11"/>
       <c r="B31" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C31" s="4"/>
       <c r="D31" s="16"/>
       <c r="E31" s="3"/>
       <c r="F31" s="11"/>
       <c r="G31" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
@@ -1338,14 +1345,14 @@
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" s="11"/>
       <c r="B32" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C32" s="4"/>
       <c r="D32" s="16"/>
       <c r="E32" s="3"/>
       <c r="F32" s="11"/>
       <c r="G32" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
@@ -1354,14 +1361,14 @@
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" s="11"/>
       <c r="B33" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C33" s="4"/>
       <c r="D33" s="16"/>
       <c r="E33" s="3"/>
       <c r="F33" s="11"/>
       <c r="G33" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
@@ -1370,69 +1377,101 @@
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" s="11"/>
       <c r="B34" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C34" s="4"/>
       <c r="D34" s="16"/>
       <c r="E34" s="3"/>
       <c r="F34" s="11"/>
       <c r="G34" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
       <c r="J34" s="13"/>
     </row>
-    <row r="35" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" s="11"/>
-      <c r="B35" s="26" t="s">
+      <c r="B35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="4"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="3"/>
+      <c r="F35" s="11"/>
+      <c r="G35" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="13"/>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" s="11"/>
+      <c r="B36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="4"/>
+      <c r="D36" s="16"/>
+      <c r="E36" s="3"/>
+      <c r="F36" s="11"/>
+      <c r="G36" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H36" s="4"/>
+      <c r="I36" s="4"/>
+      <c r="J36" s="13"/>
+    </row>
+    <row r="37" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="11"/>
+      <c r="B37" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="C35" s="26"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="8"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="32" t="s">
+      <c r="C37" s="21"/>
+      <c r="D37" s="22"/>
+      <c r="E37" s="8"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="H35" s="32"/>
-      <c r="I35" s="32"/>
-      <c r="J35" s="33"/>
-    </row>
-    <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="14"/>
-      <c r="B36" s="28"/>
-      <c r="C36" s="28"/>
-      <c r="D36" s="29"/>
-      <c r="E36" s="8"/>
-      <c r="F36" s="14"/>
-      <c r="G36" s="34"/>
-      <c r="H36" s="34"/>
-      <c r="I36" s="34"/>
-      <c r="J36" s="35"/>
+      <c r="H37" s="27"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="28"/>
+    </row>
+    <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="14"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="8"/>
+      <c r="F38" s="14"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="B25:D26"/>
-    <mergeCell ref="B35:D36"/>
-    <mergeCell ref="G25:J26"/>
-    <mergeCell ref="G35:J36"/>
-    <mergeCell ref="G7:J8"/>
-    <mergeCell ref="G17:J18"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="H20:J20"/>
-    <mergeCell ref="H22:J22"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="B17:D18"/>
-    <mergeCell ref="H23:J23"/>
     <mergeCell ref="H4:J4"/>
     <mergeCell ref="H5:J5"/>
     <mergeCell ref="H2:J2"/>
-    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="C25:D25"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="C5:D5"/>
     <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B27:D28"/>
+    <mergeCell ref="B37:D38"/>
+    <mergeCell ref="G27:J28"/>
+    <mergeCell ref="G37:J38"/>
+    <mergeCell ref="G7:J8"/>
+    <mergeCell ref="G19:J20"/>
+    <mergeCell ref="C22:D22"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="H22:J22"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="B19:D20"/>
+    <mergeCell ref="H25:J25"/>
   </mergeCells>
   <pageMargins left="0.17" right="0.16" top="0.37" bottom="0.28000000000000003" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
